--- a/data/input/absenteeism_data_4.xlsx
+++ b/data/input/absenteeism_data_4.xlsx
@@ -476,16 +476,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>68389</v>
+        <v>40574</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sr. André Martins</t>
+          <t>Alexia Moreira</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -494,201 +494,201 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45095</v>
+        <v>45102</v>
       </c>
       <c r="G2" t="n">
-        <v>12238.66</v>
+        <v>5603.76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>35120</v>
+        <v>38309</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ian Novaes</t>
+          <t>Natália Carvalho</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45078</v>
+        <v>45093</v>
       </c>
       <c r="G3" t="n">
-        <v>12345.13</v>
+        <v>3790.1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>46810</v>
+        <v>13770</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ana Sophia Lopes</t>
+          <t>Luiz Otávio Monteiro</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45087</v>
+        <v>45100</v>
       </c>
       <c r="G4" t="n">
-        <v>10800.2</v>
+        <v>5603.44</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>62622</v>
+        <v>94546</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Srta. Alana Farias</t>
+          <t>Bruna Lopes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>5</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45101</v>
+        <v>45078</v>
       </c>
       <c r="G5" t="n">
-        <v>5059.82</v>
+        <v>4099.18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>32665</v>
+        <v>98671</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Daniela Aragão</t>
+          <t>Ryan Barbosa</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45079</v>
+        <v>45086</v>
       </c>
       <c r="G6" t="n">
-        <v>9012.290000000001</v>
+        <v>8178.43</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>36717</v>
+        <v>99790</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sarah Pinto</t>
+          <t>Vinicius da Mota</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>2</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45086</v>
+        <v>45078</v>
       </c>
       <c r="G7" t="n">
-        <v>7299.17</v>
+        <v>3363.62</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>80800</v>
+        <v>32982</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sophie Costa</t>
+          <t>Sr. Marcelo Alves</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>2</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45080</v>
+        <v>45085</v>
       </c>
       <c r="G8" t="n">
-        <v>11285.45</v>
+        <v>3614.75</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4054</v>
+        <v>39670</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Nathan Cardoso</t>
+          <t>Sra. Rafaela Oliveira</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -697,56 +697,56 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45084</v>
+        <v>45098</v>
       </c>
       <c r="G9" t="n">
-        <v>9581.540000000001</v>
+        <v>7627.45</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>10421</v>
+        <v>43016</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sophie Costela</t>
+          <t>Breno Ribeiro</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45078</v>
+        <v>45094</v>
       </c>
       <c r="G10" t="n">
-        <v>5688.28</v>
+        <v>4862.57</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>31003</v>
+        <v>34720</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Leandro Ferreira</t>
+          <t>Sr. Rodrigo Jesus</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -758,10 +758,10 @@
         <v>8</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45098</v>
+        <v>45099</v>
       </c>
       <c r="G11" t="n">
-        <v>6388.46</v>
+        <v>10943.18</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_4.xlsx
+++ b/data/input/absenteeism_data_4.xlsx
@@ -476,45 +476,45 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>40574</v>
+        <v>98935</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alexia Moreira</t>
+          <t>Rafaela Alves</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45102</v>
+        <v>45105</v>
       </c>
       <c r="G2" t="n">
-        <v>5603.76</v>
+        <v>9292.549999999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>38309</v>
+        <v>61260</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Natália Carvalho</t>
+          <t>Gustavo Henrique da Mota</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -523,230 +523,230 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45093</v>
+        <v>45106</v>
       </c>
       <c r="G3" t="n">
-        <v>3790.1</v>
+        <v>10437.89</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>13770</v>
+        <v>28752</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Luiz Otávio Monteiro</t>
+          <t>Sarah da Cruz</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>2</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45100</v>
+        <v>45084</v>
       </c>
       <c r="G4" t="n">
-        <v>5603.44</v>
+        <v>6658.33</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>94546</v>
+        <v>39953</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bruna Lopes</t>
+          <t>Danilo Vieira</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45078</v>
+        <v>45104</v>
       </c>
       <c r="G5" t="n">
-        <v>4099.18</v>
+        <v>8568.969999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>98671</v>
+        <v>75343</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ryan Barbosa</t>
+          <t>Ana Laura Cardoso</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45086</v>
+        <v>45105</v>
       </c>
       <c r="G6" t="n">
-        <v>8178.43</v>
+        <v>8842.030000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>99790</v>
+        <v>58392</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Vinicius da Mota</t>
+          <t>Nina Cunha</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45078</v>
+        <v>45081</v>
       </c>
       <c r="G7" t="n">
-        <v>3363.62</v>
+        <v>3003.2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>32982</v>
+        <v>10614</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sr. Marcelo Alves</t>
+          <t>Gustavo Silveira</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45085</v>
+        <v>45082</v>
       </c>
       <c r="G8" t="n">
-        <v>3614.75</v>
+        <v>12067.99</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>39670</v>
+        <v>95192</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Sra. Rafaela Oliveira</t>
+          <t>Heloísa Rocha</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45098</v>
+        <v>45099</v>
       </c>
       <c r="G9" t="n">
-        <v>7627.45</v>
+        <v>10962.51</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>43016</v>
+        <v>94201</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Breno Ribeiro</t>
+          <t>Pietro Monteiro</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45094</v>
+        <v>45093</v>
       </c>
       <c r="G10" t="n">
-        <v>4862.57</v>
+        <v>3396.85</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>34720</v>
+        <v>33523</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sr. Rodrigo Jesus</t>
+          <t>Samuel Pires</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45099</v>
+        <v>45085</v>
       </c>
       <c r="G11" t="n">
-        <v>10943.18</v>
+        <v>12052.2</v>
       </c>
     </row>
   </sheetData>
